--- a/medicine/Mort/Terrorisme_en_1952/Terrorisme_en_1952.xlsx
+++ b/medicine/Mort/Terrorisme_en_1952/Terrorisme_en_1952.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,47 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Terrorisme_en_1952</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1952</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Événements</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Janvier
-Février
-Mars
-Avril
-Mai
-Juin
-Juillet
-Août
-Septembre
-Octobre
-Novembre
-Décembre</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
